--- a/demo/db/rst-mall_db schema v1.0.xlsx
+++ b/demo/db/rst-mall_db schema v1.0.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
     <sheet name="mall_goods_info" sheetId="24" r:id="rId3"/>
-    <sheet name="mall_goods_type" sheetId="25" r:id="rId4"/>
-    <sheet name="mall_order" sheetId="37" r:id="rId5"/>
-    <sheet name="TB_BUS_SERVICE_ANSWER" sheetId="32" r:id="rId6"/>
-    <sheet name="TB_BUS_PRODUCT_PRAISE" sheetId="33" r:id="rId7"/>
-    <sheet name="TB_BUS_PRODCUT_CONSULT" sheetId="34" r:id="rId8"/>
-    <sheet name="TB_BUS_PRODUCT_COMMENT" sheetId="35" r:id="rId9"/>
-    <sheet name="TB_BUS_SENDEE" sheetId="36" r:id="rId10"/>
-    <sheet name="TB_BUS_ORDER_DETAIL" sheetId="38" r:id="rId11"/>
-    <sheet name="TB_BUS_ORDER_ACTION" sheetId="40" r:id="rId12"/>
-    <sheet name="TB_BUS_SHOPPING_CART" sheetId="49" r:id="rId13"/>
+    <sheet name="mall_goods_desc" sheetId="50" r:id="rId4"/>
+    <sheet name="mall_goods_type" sheetId="25" r:id="rId5"/>
+    <sheet name="mall_order" sheetId="37" r:id="rId6"/>
+    <sheet name="TB_BUS_SERVICE_ANSWER" sheetId="32" r:id="rId7"/>
+    <sheet name="TB_BUS_PRODUCT_PRAISE" sheetId="33" r:id="rId8"/>
+    <sheet name="TB_BUS_PRODCUT_CONSULT" sheetId="34" r:id="rId9"/>
+    <sheet name="TB_BUS_PRODUCT_COMMENT" sheetId="35" r:id="rId10"/>
+    <sheet name="TB_BUS_SENDEE" sheetId="36" r:id="rId11"/>
+    <sheet name="TB_BUS_ORDER_DETAIL" sheetId="38" r:id="rId12"/>
+    <sheet name="TB_BUS_ORDER_ACTION" sheetId="40" r:id="rId13"/>
+    <sheet name="TB_BUS_SHOPPING_CART" sheetId="49" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="308">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,18 +155,10 @@
     <t>系统表</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LAST_UP_TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPEN_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,106 +171,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品(商品)名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BASE_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品采购底价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARKET_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALE_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VISIBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否上架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为新品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREAT_TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:上架，N:下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:新品，N:非新品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:推荐，N:不推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,34 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THUMB_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VISIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMMARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,14 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PRODUCT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,18 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARGUMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点赞时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,103 +423,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>订单生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_BUS_ORDER_ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运货方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREIGHT_WAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREIGHTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREIGHT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单生成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_BUS_ORDER_ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单操作列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单产品明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMG_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_BY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运货方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货运单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREIGHT_WAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREIGHTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREIGHT_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:创建订单，待付款，2：已付款，待发货，3：已发货，待收货4：已签收，完成，5：取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AREA_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送的区域码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,18 +602,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>商品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_BUS_SHOPPING_CART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1159,14 +996,268 @@
   </si>
   <si>
     <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品采购底价(单位：元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场价(单位：元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价(单位：元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自营商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:自营商品 1：第三方商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_goods_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息详细描述，为提供查询商品时的性能。将商品信息大字段维护在描述表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大字段存储，包括：文字、图片、视频等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_goods_info.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态:0=未上架1=上架2=下架3=删除4=售完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否展示销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:不展示,1:展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持积分抵扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:不支持,1:支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:不推荐,1:推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持现金券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品封面图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品轮播图片；第一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:无属性,1:单级商品属性,2:多级商品属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1377,19 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1337,7 +1441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1558,6 +1662,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1568,7 +1687,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,12 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1699,9 +1812,24 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1711,12 +1839,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1741,14 +1863,56 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1775,7 +1939,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="修订历史"/>
@@ -1862,7 +2026,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1904,7 +2068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1936,27 +2100,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,24 +2134,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2181,23 +2309,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
@@ -2209,29 +2337,29 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B2" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +2371,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
@@ -2260,40 +2388,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="11">
-        <v>42995</v>
+        <v>43001</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2305,55 +2433,56 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2382,15 +2511,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -2402,20 +2531,20 @@
         <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -2424,163 +2553,167 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="B6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="B8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="I10" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="2" t="s">
@@ -2590,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="16"/>
@@ -2608,56 +2741,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2686,216 +2818,218 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="22">
-        <v>100</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="22">
-        <v>100</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="22">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="22">
-        <v>100</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="22">
-        <v>5</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="22">
-        <v>10</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="22">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="22">
-        <v>3</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="22">
-        <v>7</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="22">
-        <v>30</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="22">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="22">
-        <v>30</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="27"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2910,55 +3044,357 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="22">
+        <v>100</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="22">
+        <v>100</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="22">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="22">
+        <v>10</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="22">
+        <v>30</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="22">
+        <v>30</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.21875" customWidth="1"/>
+    <col min="9" max="9" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +3423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2995,7 +3431,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -3012,7 +3448,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3020,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -3037,40 +3473,40 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
@@ -3085,15 +3521,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="2" t="s">
@@ -3121,58 +3557,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3189,36 +3625,36 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2">
         <v>20</v>
@@ -3226,24 +3662,24 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
@@ -3251,22 +3687,22 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -3274,22 +3710,22 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -3311,46 +3747,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>237</v>
+      <c r="B2" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
@@ -3361,12 +3797,12 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>238</v>
+      <c r="B3" s="42" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>30</v>
@@ -3377,12 +3813,12 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>244</v>
+      <c r="B4" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>30</v>
@@ -3393,12 +3829,12 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>239</v>
+      <c r="B5" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -3409,12 +3845,12 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>233</v>
+      <c r="B6" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -3425,12 +3861,12 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>245</v>
+      <c r="B7" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -3441,12 +3877,12 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>246</v>
+      <c r="B8" s="42" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -3457,12 +3893,12 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>240</v>
+      <c r="B9" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>30</v>
@@ -3473,12 +3909,12 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>241</v>
+      <c r="B10" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>30</v>
@@ -3486,12 +3922,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>247</v>
+      <c r="B11" s="43" t="s">
+        <v>206</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>30</v>
@@ -3502,9 +3938,9 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="7"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3534,98 +3970,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="42" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>250</v>
+        <v>208</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>209</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -3634,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G4" s="2">
         <v>32</v>
@@ -3642,445 +4078,584 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>214</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>242</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>248</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>243</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>245</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>250</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>251</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>256</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>252</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>253</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>115</v>
+        <v>303</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>304</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="G12" s="2">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>255</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="G13" s="2">
-        <v>100</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>257</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>258</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="G14" s="2">
-        <v>100</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>286</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>293</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>291</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>296</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>297</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="65">
+        <v>1</v>
+      </c>
+      <c r="H18" s="65">
+        <v>0</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="70">
+        <v>1</v>
+      </c>
+      <c r="H19" s="70">
+        <v>0</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="70">
+        <v>128</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="70">
+        <v>128</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="72"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="70">
+        <v>1</v>
+      </c>
+      <c r="H22" s="70">
+        <v>0</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>18</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22" t="s">
+      <c r="F23" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>20</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="22">
-        <v>100</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F24" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="74">
+        <v>32</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="72"/>
+    </row>
+    <row r="26" spans="1:9" s="32" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="1:9" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" s="39">
+        <v>32</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" s="32" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" s="32" customFormat="1"/>
+    <row r="30" spans="1:9" s="32" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -4090,101 +4665,250 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="32" customFormat="1"/>
+    <row r="7" spans="1:10" s="32" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="42" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -4201,15 +4925,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
@@ -4224,15 +4948,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
@@ -4247,7 +4971,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4255,7 +4979,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
@@ -4270,15 +4994,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="2" t="s">
@@ -4292,7 +5016,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4307,99 +5031,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" customWidth="1"/>
+    <col min="10" max="10" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="42" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -4408,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G4" s="2">
         <v>32</v>
@@ -4416,22 +5140,22 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="22" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G5" s="22">
         <v>64</v>
@@ -4439,47 +5163,47 @@
       <c r="H5" s="22"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G7" s="22">
         <v>32</v>
@@ -4487,22 +5211,22 @@
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G8" s="22">
         <v>16</v>
@@ -4510,22 +5234,22 @@
       <c r="H8" s="22"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="22" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G9" s="22">
         <v>256</v>
@@ -4533,47 +5257,47 @@
       <c r="H9" s="22"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="31">
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="22" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="G10" s="22">
         <v>1</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="31">
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="22" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G11" s="22">
         <v>8</v>
@@ -4581,97 +5305,97 @@
       <c r="H11" s="22"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12" s="31">
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="G12" s="22">
         <v>1</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G13" s="22">
         <v>64</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="31">
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G14" s="22">
         <v>24</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="22">
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="22" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -4680,25 +5404,25 @@
         <v>1</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="22">
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="22" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G16" s="22">
         <v>100</v>
@@ -4706,22 +5430,22 @@
       <c r="H16" s="22"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.25" customHeight="1">
       <c r="A17" s="22">
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="22" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G17" s="22">
         <v>15</v>
@@ -4729,22 +5453,22 @@
       <c r="H17" s="22"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.25" customHeight="1">
       <c r="A18" s="22">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G18" s="22">
         <v>256</v>
@@ -4752,283 +5476,97 @@
       <c r="H18" s="22"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.25" customHeight="1">
       <c r="A19" s="22">
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>232</v>
+      <c r="F19" s="39" t="s">
+        <v>191</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="22">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="41" t="s">
-        <v>232</v>
+      <c r="F20" s="39" t="s">
+        <v>191</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="17">
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G21" s="17">
         <v>32</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
       <c r="A22" s="17">
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G22" s="17">
         <v>32</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2">
-        <v>200</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="16"/>
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5044,57 +5582,54 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5123,15 +5658,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -5148,15 +5683,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -5165,23 +5700,23 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
@@ -5191,320 +5726,33 @@
         <v>18</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>200</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="22">
-        <v>200</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>6</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="22">
-        <v>50</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="22">
-        <v>20</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>8</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="22">
-        <v>20</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39">
-        <v>9</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>180</v>
-      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5519,57 +5767,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5598,15 +5847,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -5623,15 +5872,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -5648,19 +5897,19 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5670,150 +5919,6 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>200</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2">
-        <v>200</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5825,4 +5930,315 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A8" s="22">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="22">
+        <v>200</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A9" s="22">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="22">
+        <v>50</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A10" s="22">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="22">
+        <v>20</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A11" s="22">
+        <v>8</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="22">
+        <v>20</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A12" s="37">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/demo/db/rst-mall_db schema v1.0.xlsx
+++ b/demo/db/rst-mall_db schema v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="471">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,10 +670,6 @@
   </si>
   <si>
     <t>0:不展示,1:展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:不支持,1:支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1366,10 +1362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mall_goods_type.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品sku属性信息（预留扩展，目前只考虑单属性的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1491,41 +1483,6 @@
   </si>
   <si>
     <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经销商配送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>, 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快递配送</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1687,14 +1644,6 @@
   </si>
   <si>
     <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nick_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2511,12 +2460,28 @@
     <t>mall_area_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mall_goods_type.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2638,6 +2603,54 @@
       <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3073,7 +3086,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3302,9 +3315,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3392,6 +3402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3467,8 +3480,134 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3818,7 +3957,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3941,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3965,7 +4104,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -3974,7 +4113,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3983,7 +4122,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="128" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -4034,7 +4173,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>10</v>
@@ -4059,25 +4198,25 @@
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>64</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="79" t="s">
-        <v>378</v>
+      <c r="H5" s="85"/>
+      <c r="I5" s="78" t="s">
+        <v>373</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4088,24 +4227,24 @@
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>16</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
         <v>grow_up int(16) COMMENT '成长值',</v>
@@ -4115,24 +4254,24 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="B7" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>16</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>integral int(16) COMMENT '积分',</v>
@@ -4142,24 +4281,24 @@
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="C8" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>24</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="59" t="str">
         <f t="shared" si="0"/>
         <v>total_amt varchar(24) COMMENT '顾客钱包（余额）',</v>
@@ -4169,24 +4308,24 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="B9" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>32</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="59" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(32) COMMENT '姓名',</v>
@@ -4196,51 +4335,51 @@
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
+      <c r="B10" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>32</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>nick_name varchar(32) COMMENT '昵称',</v>
+        <v>login_name varchar(32) COMMENT '登陆名',</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
-        <v>360</v>
+      <c r="B11" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
+        <v>357</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="85">
         <v>32</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="79"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="59" t="str">
         <f t="shared" si="0"/>
         <v>password varchar(32) COMMENT '密码',</v>
@@ -4250,24 +4389,24 @@
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="83" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="B12" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>16</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>mobile_no varchar(16) COMMENT '手机号',</v>
@@ -4277,24 +4416,24 @@
       <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86" t="s">
+      <c r="B13" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <v>24</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>id_card varchar(24) COMMENT '身份证号',</v>
@@ -4304,24 +4443,24 @@
       <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86" t="s">
+      <c r="B14" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="85">
         <v>32</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="81"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>belong_to varchar(32) COMMENT '所属代理商',</v>
@@ -4331,27 +4470,27 @@
       <c r="A15" s="27">
         <v>12</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86" t="s">
+      <c r="B15" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="85">
         <v>24</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="85">
         <v>1</v>
       </c>
-      <c r="I15" s="81" t="s">
-        <v>402</v>
+      <c r="I15" s="80" t="s">
+        <v>397</v>
       </c>
       <c r="J15" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4362,28 +4501,26 @@
       <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>359</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86" t="s">
+      <c r="B16" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="85">
         <v>64</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="85">
         <v>1</v>
       </c>
-      <c r="I16" s="81" t="s">
-        <v>357</v>
-      </c>
+      <c r="I16" s="80"/>
       <c r="J16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>email varchar(64) DEFAULT 1 COMMENT '邮箱地址',</v>
@@ -4393,25 +4530,25 @@
       <c r="A17" s="27">
         <v>14</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="86" t="s">
+      <c r="B17" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="85">
         <v>16</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="80" t="s">
-        <v>362</v>
+      <c r="H17" s="85"/>
+      <c r="I17" s="79" t="s">
+        <v>359</v>
       </c>
       <c r="J17" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4422,22 +4559,22 @@
       <c r="A18" s="27">
         <v>15</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="85" t="s">
+      <c r="B18" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="84" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="80"/>
+        <v>362</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>birthday_rate float() COMMENT '生日折扣',</v>
@@ -4448,17 +4585,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G19" s="27">
         <v>1</v>
@@ -4467,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J19" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4478,24 +4615,24 @@
       <c r="A20" s="27">
         <v>17</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="85">
         <v>128</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="81"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(128) COMMENT '备注',</v>
@@ -4505,22 +4642,22 @@
       <c r="A21" s="27">
         <v>18</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86" t="s">
+      <c r="B21" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="81"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建（注册）时间',</v>
@@ -4531,10 +4668,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="55" t="s">
         <v>349</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>351</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="27" t="s">
@@ -4545,7 +4682,7 @@
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="82"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
@@ -4559,7 +4696,7 @@
     </row>
     <row r="24" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E24" s="118"/>
       <c r="J24" s="61" t="str">
@@ -4568,8 +4705,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
       <c r="J25" s="61" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
@@ -4583,22 +4720,22 @@
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F27" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G27" s="108"/>
       <c r="H27" s="108"/>
@@ -4610,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4636,7 +4773,7 @@
     <hyperlink ref="D24:E24" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4668,7 +4805,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -4677,7 +4814,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4686,7 +4823,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="128" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -4737,7 +4874,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>10</v>
@@ -4752,8 +4889,8 @@
         <v>32</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="81" t="s">
-        <v>381</v>
+      <c r="I4" s="80" t="s">
+        <v>376</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J16" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -4764,25 +4901,25 @@
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>64</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="81" t="s">
-        <v>382</v>
+      <c r="H5" s="85"/>
+      <c r="I5" s="80" t="s">
+        <v>377</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4793,27 +4930,27 @@
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>1</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="85">
         <v>0</v>
       </c>
-      <c r="I6" s="81" t="s">
-        <v>369</v>
+      <c r="I6" s="80" t="s">
+        <v>366</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4824,24 +4961,24 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="B7" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>16</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>name int(16) COMMENT '姓名',</v>
@@ -4851,24 +4988,24 @@
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="83" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="B8" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>24</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="59" t="str">
         <f t="shared" si="0"/>
         <v>mobile_no varchar(24) COMMENT '手机号',</v>
@@ -4878,25 +5015,25 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>8</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="81" t="s">
-        <v>379</v>
+      <c r="H9" s="85"/>
+      <c r="I9" s="80" t="s">
+        <v>374</v>
       </c>
       <c r="J9" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4907,25 +5044,25 @@
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>8</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="79" t="s">
-        <v>379</v>
+      <c r="H10" s="85"/>
+      <c r="I10" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4936,25 +5073,25 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="85">
         <v>8</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="81" t="s">
-        <v>379</v>
+      <c r="H11" s="85"/>
+      <c r="I11" s="80" t="s">
+        <v>374</v>
       </c>
       <c r="J11" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4965,25 +5102,25 @@
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="83" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="B12" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>256</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="81" t="s">
-        <v>385</v>
+      <c r="H12" s="85"/>
+      <c r="I12" s="80" t="s">
+        <v>380</v>
       </c>
       <c r="J12" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4994,25 +5131,25 @@
       <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <v>256</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="81" t="s">
-        <v>384</v>
+      <c r="H13" s="85"/>
+      <c r="I13" s="80" t="s">
+        <v>379</v>
       </c>
       <c r="J13" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5023,24 +5160,24 @@
       <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="85">
         <v>128</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="81"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(128) COMMENT '备注',</v>
@@ -5050,22 +5187,22 @@
       <c r="A15" s="27">
         <v>12</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86" t="s">
+      <c r="D15" s="84"/>
+      <c r="E15" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
@@ -5076,10 +5213,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>349</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>351</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="27" t="s">
@@ -5090,7 +5227,7 @@
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="82"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
@@ -5110,7 +5247,7 @@
     </row>
     <row r="19" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" s="118"/>
       <c r="J19" s="61" t="str">
@@ -5126,22 +5263,22 @@
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
@@ -5152,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5206,11 +5343,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -5219,16 +5356,16 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -5240,31 +5377,31 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>183</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
@@ -5276,13 +5413,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
@@ -5305,14 +5442,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>60</v>
@@ -5335,11 +5472,11 @@
         <v>62</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>63</v>
@@ -5349,7 +5486,7 @@
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="24" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5361,24 +5498,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="20">
         <v>32</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5390,24 +5527,24 @@
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="20">
         <v>16</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J8" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5419,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="20" t="s">
@@ -5436,7 +5573,7 @@
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J9" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5448,10 +5585,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="20" t="s">
@@ -5465,7 +5602,7 @@
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5480,14 +5617,14 @@
         <v>65</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="20">
         <v>8</v>
@@ -5507,21 +5644,21 @@
         <v>64</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="20">
         <v>24</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J12" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5533,14 +5670,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>63</v>
@@ -5552,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J13" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5564,17 +5701,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>302</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>303</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="20">
         <v>100</v>
@@ -5594,14 +5731,14 @@
         <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="20">
         <v>15</v>
@@ -5618,17 +5755,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="20">
         <v>256</v>
@@ -5645,10 +5782,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="20" t="s">
@@ -5673,7 +5810,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="1" t="s">
@@ -5695,24 +5832,24 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="15">
         <v>32</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J19" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5724,7 +5861,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>44</v>
@@ -5734,7 +5871,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="15">
         <v>32</v>
@@ -5756,7 +5893,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" s="118"/>
       <c r="J22" s="61" t="str">
@@ -5778,22 +5915,22 @@
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
@@ -5804,15 +5941,15 @@
         <v>1</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5861,7 +5998,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -5870,7 +6007,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5879,7 +6016,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="128" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -5927,26 +6064,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="81" t="s">
-        <v>394</v>
+      <c r="I4" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -5957,25 +6094,25 @@
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
-        <v>392</v>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="86">
+        <v>388</v>
+      </c>
+      <c r="G5" s="85">
         <v>32</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="81" t="s">
-        <v>396</v>
+      <c r="H5" s="85"/>
+      <c r="I5" s="80" t="s">
+        <v>391</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -5986,25 +6123,25 @@
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="86" t="s">
         <v>392</v>
       </c>
+      <c r="C6" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
+        <v>387</v>
+      </c>
       <c r="F6" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="86">
+        <v>388</v>
+      </c>
+      <c r="G6" s="85">
         <v>32</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="81" t="s">
-        <v>399</v>
+      <c r="H6" s="85"/>
+      <c r="I6" s="80" t="s">
+        <v>394</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6016,23 +6153,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>458</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G7" s="86">
+        <v>388</v>
+      </c>
+      <c r="G7" s="85">
         <v>128</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>cover_url varchar(128) NOT NULL COMMENT '商品封面图片',</v>
@@ -6042,24 +6179,24 @@
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
-        <v>392</v>
+      <c r="B8" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>4</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="59" t="str">
         <f t="shared" si="0"/>
         <v>quantity int(4) NOT NULL COMMENT '商品数量',</v>
@@ -6069,25 +6206,25 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
-        <v>392</v>
+      <c r="B9" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G9" s="86">
+        <v>388</v>
+      </c>
+      <c r="G9" s="85">
         <v>24</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="80" t="s">
-        <v>407</v>
+      <c r="H9" s="85"/>
+      <c r="I9" s="79" t="s">
+        <v>402</v>
       </c>
       <c r="J9" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6100,25 +6237,25 @@
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
-        <v>410</v>
+      <c r="B10" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
+        <v>405</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="86">
+        <v>388</v>
+      </c>
+      <c r="G10" s="85">
         <v>24</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="79" t="s">
-        <v>431</v>
+      <c r="H10" s="85"/>
+      <c r="I10" s="78" t="s">
+        <v>426</v>
       </c>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6129,25 +6266,25 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
+      <c r="B11" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G11" s="86">
+        <v>388</v>
+      </c>
+      <c r="G11" s="85">
         <v>24</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="79" t="s">
-        <v>403</v>
+      <c r="H11" s="85"/>
+      <c r="I11" s="78" t="s">
+        <v>398</v>
       </c>
       <c r="J11" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6162,7 +6299,7 @@
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E13" s="118"/>
       <c r="J13" s="61" t="str">
@@ -6171,8 +6308,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
       <c r="J14" s="61" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
@@ -6186,22 +6323,22 @@
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="108"/>
@@ -6212,15 +6349,15 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6269,7 +6406,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -6278,7 +6415,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6287,7 +6424,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="128" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -6335,26 +6472,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="81" t="s">
-        <v>394</v>
+      <c r="I4" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J9" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -6365,25 +6502,25 @@
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
-        <v>392</v>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="86">
+        <v>388</v>
+      </c>
+      <c r="G5" s="85">
         <v>32</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="81" t="s">
-        <v>396</v>
+      <c r="H5" s="85"/>
+      <c r="I5" s="80" t="s">
+        <v>391</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6394,25 +6531,25 @@
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="86" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
-        <v>392</v>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
+        <v>387</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="86">
+        <v>388</v>
+      </c>
+      <c r="G6" s="85">
         <v>32</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="81" t="s">
-        <v>447</v>
+      <c r="H6" s="85"/>
+      <c r="I6" s="80" t="s">
+        <v>442</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6424,23 +6561,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G7" s="86">
+        <v>388</v>
+      </c>
+      <c r="G7" s="85">
         <v>128</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(128) COMMENT '操作描述、备注',</v>
@@ -6454,7 +6591,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
@@ -6510,7 +6647,7 @@
     </row>
     <row r="11" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E11" s="118"/>
       <c r="J11" s="61" t="str">
@@ -6519,8 +6656,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
       <c r="J12" s="61" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
@@ -6534,22 +6671,22 @@
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G14" s="108"/>
       <c r="H14" s="108"/>
@@ -6560,15 +6697,15 @@
         <v>1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6613,11 +6750,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -6626,16 +6763,16 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -6647,16 +6784,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="D3" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>56</v>
@@ -6665,13 +6802,13 @@
         <v>39</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
@@ -6683,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>30</v>
@@ -6695,14 +6832,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="31" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J7" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -6724,14 +6861,14 @@
         <v>11</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="27">
         <v>32</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="31" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6746,21 +6883,21 @@
         <v>61</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="27">
         <v>32</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="31" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -6771,24 +6908,24 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="B7" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>4</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>quantity int(4) NOT NULL COMMENT '商品数量',</v>
@@ -6798,25 +6935,25 @@
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>430</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="B8" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>24</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="79" t="s">
-        <v>431</v>
+      <c r="H8" s="85"/>
+      <c r="I8" s="78" t="s">
+        <v>426</v>
       </c>
       <c r="J8" s="59" t="e">
         <f>#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"datetime",#REF!&amp;"("&amp;#REF!&amp;")",#REF!)&amp;IF(#REF!="N"," NOT NULL","")&amp;IF(#REF!&lt;&gt;""," DEFAULT "&amp;#REF!,IF(#REF!&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;#REF!&amp;"',"</f>
@@ -6827,49 +6964,49 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
-        <v>460</v>
+      <c r="B9" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
+        <v>455</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>24</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
+      <c r="C10" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>24</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="79" t="s">
-        <v>403</v>
+      <c r="H10" s="85"/>
+      <c r="I10" s="78" t="s">
+        <v>398</v>
       </c>
       <c r="J10" s="59" t="str">
         <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
@@ -6888,14 +7025,14 @@
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="78"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="59" t="str">
         <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
@@ -6913,14 +7050,14 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>97</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="79"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="61" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
@@ -6943,7 +7080,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="118"/>
       <c r="J14" s="61" t="str">
@@ -6952,8 +7089,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
       <c r="J15" s="61" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
@@ -6967,22 +7104,22 @@
     </row>
     <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="108"/>
@@ -6993,15 +7130,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7046,11 +7183,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -7059,7 +7196,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7068,7 +7205,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -7080,28 +7217,28 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>40</v>
@@ -7119,7 +7256,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>33</v>
@@ -7128,7 +7265,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
@@ -7145,10 +7282,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
@@ -7172,10 +7309,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
@@ -7191,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -7262,7 +7399,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>72</v>
@@ -7322,7 +7459,7 @@
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="118"/>
       <c r="J14" s="61" t="str">
@@ -7335,19 +7472,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
@@ -7358,25 +7495,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7415,7 +7552,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -7424,7 +7561,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7433,7 +7570,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -7445,16 +7582,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>56</v>
@@ -7481,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>238</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
@@ -7500,7 +7637,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -7512,10 +7649,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>240</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>241</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>33</v>
@@ -7531,7 +7668,7 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -7543,10 +7680,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>244</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
@@ -7560,7 +7697,7 @@
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -7572,10 +7709,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>246</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>247</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
@@ -7589,7 +7726,7 @@
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
@@ -7604,7 +7741,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
@@ -7687,7 +7824,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>97</v>
@@ -7723,7 +7860,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="118"/>
       <c r="J14" s="61" t="str">
@@ -7742,19 +7879,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="108"/>
@@ -7765,25 +7902,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7822,7 +7959,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -7831,16 +7968,16 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -7852,31 +7989,31 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>184</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
@@ -7891,10 +8028,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>188</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>189</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>31</v>
@@ -7917,17 +8054,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="27">
         <v>64</v>
@@ -7944,17 +8081,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>254</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>255</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="27">
         <v>1</v>
@@ -8032,7 +8169,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>72</v>
@@ -8059,7 +8196,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>97</v>
@@ -8092,7 +8229,7 @@
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="118"/>
       <c r="J14" s="61" t="str">
@@ -8105,19 +8242,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
@@ -8128,15 +8265,15 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8181,11 +8318,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -8194,16 +8331,16 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -8215,31 +8352,31 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
@@ -8251,19 +8388,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>190</v>
-      </c>
       <c r="F4" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
@@ -8280,24 +8417,24 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>260</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="27">
         <v>32</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -8309,17 +8446,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>263</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="71">
         <v>8</v>
@@ -8338,10 +8475,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>265</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
@@ -8363,10 +8500,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -8388,10 +8525,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>268</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>269</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -8416,11 +8553,11 @@
         <v>81</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>72</v>
@@ -8447,10 +8584,10 @@
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -8472,7 +8609,7 @@
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>72</v>
@@ -8499,7 +8636,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="70" t="s">
         <v>97</v>
@@ -8526,7 +8663,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" s="118"/>
       <c r="J16" s="61" t="str">
@@ -8545,19 +8682,19 @@
         <v>23</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
@@ -8568,15 +8705,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8602,8 +8739,8 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8653,7 +8790,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>120</v>
@@ -8669,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>120</v>
@@ -8701,7 +8838,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>120</v>
@@ -8717,7 +8854,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>120</v>
@@ -8733,7 +8870,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>120</v>
@@ -8749,7 +8886,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>120</v>
@@ -8765,7 +8902,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>120</v>
@@ -8781,7 +8918,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>120</v>
@@ -8797,7 +8934,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>120</v>
@@ -8813,7 +8950,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>120</v>
@@ -8829,7 +8966,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>120</v>
@@ -8845,7 +8982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>120</v>
@@ -8861,7 +8998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>120</v>
@@ -8877,7 +9014,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>120</v>
@@ -8893,7 +9030,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>120</v>
@@ -8909,7 +9046,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>120</v>
@@ -8987,398 +9124,399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="137" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="137" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="137" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="137" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" style="137" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114" t="s">
+      <c r="A1" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="138" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="111"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="59" t="str">
+      <c r="I3" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="140" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE mall_freight_info_area (</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="141">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="144" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="141">
+        <v>32</v>
+      </c>
+      <c r="H4" s="141"/>
+      <c r="I4" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="27">
-        <v>32</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="59" t="str">
+      <c r="J4" s="140" t="str">
         <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>freight_info_id varchar(32) NOT NULL COMMENT '运费细则编号',</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="141">
         <v>2</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="141">
+        <v>32</v>
+      </c>
+      <c r="H5" s="149"/>
+      <c r="I5" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="J5" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>area_id varchar(32) COMMENT '区域编号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="141">
+        <v>3</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="F6" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="153">
+        <v>24</v>
+      </c>
+      <c r="H6" s="153"/>
+      <c r="I6" s="150" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>level varchar(24) COMMENT '行政级别',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="141">
+        <v>4</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="153">
+        <v>64</v>
+      </c>
+      <c r="H7" s="153"/>
+      <c r="I7" s="151" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>area_name varchar(64) COMMENT '地区名称',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="141">
+        <v>5</v>
+      </c>
+      <c r="B8" s="151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="F8" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="153">
         <v>32</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>area_id varchar(32) COMMENT '区域编号',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>3</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="45" t="s">
+      <c r="H8" s="153"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="156" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141">
+        <v>6</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="154" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="156" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="141">
+        <v>7</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="45">
-        <v>24</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="J6" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>level varchar(24) COMMENT '行政级别',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>4</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="G10" s="159">
+        <v>32</v>
+      </c>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="156" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="141">
+        <v>8</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="45">
-        <v>64</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="J7" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>area_name varchar(64) COMMENT '地区名称',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>5</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="45">
-        <v>32</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>6</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>7</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="39">
-        <v>32</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>8</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="59" t="str">
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="140" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" s="61" t="str">
+    <row r="12" spans="1:10" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="164" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (freight_info_id,area_id)</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" s="61" t="str">
+    <row r="13" spans="1:10" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="164" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="J14" s="61" t="str">
+      <c r="D14" s="165" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="165"/>
+      <c r="J14" s="164" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="61" t="str">
+      <c r="J15" s="164" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="E16" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="168"/>
     </row>
     <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="169">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="B17" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9401,10 +9539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9436,7 +9574,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9512,10 +9650,10 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="59" t="str">
-        <f t="shared" ref="J4:J27" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J28" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '商品编号(rst-mall商城内部编号)',</v>
       </c>
     </row>
@@ -9551,7 +9689,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>75</v>
@@ -9568,7 +9706,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="32" t="s">
-        <v>325</v>
+        <v>467</v>
       </c>
       <c r="J6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -9717,10 +9855,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J11" s="59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J11" si="1">B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>is_integral char(1) NOT NULL DEFAULT 0 COMMENT '是否支持积分抵扣',</v>
       </c>
     </row>
@@ -9729,92 +9867,90 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="I12" s="32"/>
       <c r="J12" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>is_cash char(1) NOT NULL DEFAULT 0 COMMENT '是否支持现金券',</v>
+        <v>integral int(4) DEFAULT 0 COMMENT '赠送积分',</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37" t="s">
+      <c r="B13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J13" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>is_recommend char(1) NOT NULL DEFAULT 0 COMMENT '是否推荐',</v>
+        <v>is_cash char(1) NOT NULL DEFAULT 0 COMMENT '是否支持现金券',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="B14" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="37">
         <v>1</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="37">
         <v>0</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="J14" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>is_ad char(1) NOT NULL DEFAULT 0 COMMENT '是否支持投放广告',</v>
+        <v>is_recommend char(1) NOT NULL DEFAULT 0 COMMENT '是否推荐',</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9822,17 +9958,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="G15" s="41">
         <v>1</v>
@@ -9841,29 +9977,29 @@
         <v>0</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="J15" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>status char(1) NOT NULL DEFAULT 0 COMMENT '商品状态',</v>
+        <v>is_ad char(1) NOT NULL DEFAULT 0 COMMENT '是否支持投放广告',</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>317</v>
+      <c r="B16" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="G16" s="41">
         <v>1</v>
@@ -9872,11 +10008,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="J16" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>is_post_free char(1) NOT NULL DEFAULT 0 COMMENT '是否包邮',</v>
+        <v>status char(1) NOT NULL DEFAULT 0 COMMENT '商品状态',</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9884,28 +10020,30 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41" t="s">
         <v>189</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="G17" s="41">
-        <v>32</v>
-      </c>
-      <c r="H17" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
       <c r="I17" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J17" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>freight_tmpl_id varchar(32) COMMENT '运费模板编号',</v>
+        <v>is_post_free char(1) NOT NULL DEFAULT 0 COMMENT '是否包邮',</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9913,14 +10051,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>60</v>
@@ -9930,40 +10068,40 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J18" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>area_tmpl_id varchar(32) COMMENT '配送区域编号',</v>
+        <v>freight_tmpl_id varchar(32) COMMENT '运费模板编号',</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
+      <c r="B19" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>318</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="41">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J19" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>cover_url varchar(128) COMMENT '商品封面图片',</v>
+        <v>area_tmpl_id varchar(32) COMMENT '配送区域编号',</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9971,10 +10109,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41" t="s">
@@ -9987,66 +10125,70 @@
         <v>128</v>
       </c>
       <c r="H20" s="41"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="32" t="s">
+        <v>320</v>
+      </c>
       <c r="J20" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>pic_url varchar(128) COMMENT '商品轮播图片；第一张',</v>
+        <v>cover_url varchar(128) COMMENT '商品封面图片',</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="51">
-        <v>1</v>
-      </c>
-      <c r="H21" s="51">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>118</v>
-      </c>
+      <c r="B21" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="41">
+        <v>128</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>attr_type char(1) NOT NULL DEFAULT 0 COMMENT '商品属性类型',</v>
+        <v>pic_url varchar(128) COMMENT '商品轮播图片；第一张',</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="32"/>
+      <c r="B22" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="51">
+        <v>1</v>
+      </c>
+      <c r="H22" s="51">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="J22" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>online_time datetime DEFAULT CURRENT_datetime COMMENT '上架时间',</v>
+        <v>attr_type char(1) NOT NULL DEFAULT 0 COMMENT '商品属性类型',</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,10 +10196,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41" t="s">
@@ -10071,136 +10213,144 @@
       <c r="I23" s="32"/>
       <c r="J23" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>offline_time datetime DEFAULT CURRENT_datetime COMMENT '下架时间',</v>
+        <v>online_time datetime DEFAULT CURRENT_datetime COMMENT '上架时间',</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="45">
-        <v>32</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="B24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="32"/>
       <c r="J24" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>offline_time datetime DEFAULT CURRENT_datetime COMMENT '下架时间',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="F25" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="45">
+        <v>32</v>
+      </c>
+      <c r="H25" s="45"/>
       <c r="I25" s="32"/>
       <c r="J25" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="27">
-        <v>32</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25"/>
+      <c r="F26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="27">
+        <v>32</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="25"/>
       <c r="J27" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
-    </row>
-    <row r="28" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="61" t="str">
-        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
-        <v>PRIMARY KEY (id)</v>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -10209,95 +10359,112 @@
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="E29" s="118"/>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" s="61" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="118"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" s="61" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J30" s="61" t="str">
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="61" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="61" t="str">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="61" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F33" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="109"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F32" s="107" t="s">
-        <v>437</v>
-      </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="109"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
       <c r="J34">
         <f>F34</f>
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>F35</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D29:E29" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="D30:E30" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -10309,7 +10476,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10341,7 +10508,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10410,14 +10577,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="59" t="str">
         <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
@@ -10432,7 +10599,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="27" t="s">
@@ -10444,7 +10611,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -10483,7 +10650,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" s="118"/>
       <c r="J8" s="61" t="str">
@@ -10499,22 +10666,22 @@
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G10" s="108"/>
       <c r="H10" s="108"/>
@@ -10525,15 +10692,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
       <c r="J11">
         <f>F11</f>
         <v>0</v>
@@ -10563,7 +10730,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J18"/>
+      <selection activeCell="B4" sqref="B4:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10586,7 +10753,7 @@
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -10595,7 +10762,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10604,7 +10771,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -10616,16 +10783,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>56</v>
@@ -10655,7 +10822,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>33</v>
@@ -10740,7 +10907,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
@@ -10764,7 +10931,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>117</v>
@@ -10906,7 +11073,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E15" s="118"/>
       <c r="J15" s="61" t="str">
@@ -10922,22 +11089,22 @@
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="108"/>
@@ -10948,15 +11115,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
       <c r="J18">
         <f>F18</f>
         <v>0</v>
@@ -10986,7 +11153,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11005,11 +11172,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
@@ -11018,16 +11185,16 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -11039,31 +11206,31 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
@@ -11075,16 +11242,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>60</v>
@@ -11104,24 +11271,24 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -11133,14 +11300,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>72</v>
@@ -11160,10 +11327,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
@@ -11177,7 +11344,7 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J7" s="59" t="str">
         <f t="shared" si="0"/>
@@ -11189,17 +11356,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>200</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>201</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>202</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>203</v>
       </c>
       <c r="G8" s="41">
         <v>4</v>
@@ -11218,10 +11385,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
@@ -11245,17 +11412,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
@@ -11264,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -11283,7 +11450,7 @@
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>72</v>
@@ -11310,10 +11477,10 @@
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
@@ -11335,7 +11502,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>72</v>
@@ -11383,7 +11550,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" s="118"/>
       <c r="J16" s="61" t="str">
@@ -11405,22 +11572,22 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="F19" s="122" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="122" t="s">
-        <v>216</v>
       </c>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -11431,13 +11598,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="119"/>
@@ -11454,13 +11621,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="119"/>
@@ -11498,7 +11665,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J23"/>
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11530,7 +11697,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11589,8 +11756,8 @@
       <c r="B4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>411</v>
+      <c r="C4" s="93" t="s">
+        <v>406</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>30</v>
@@ -11599,7 +11766,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="27">
         <v>32</v>
@@ -11620,22 +11787,22 @@
       <c r="B5" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>412</v>
+      <c r="C5" s="94" t="s">
+        <v>407</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="27">
         <v>32</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -11650,14 +11817,14 @@
         <v>148</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="27">
         <v>32</v>
@@ -11674,10 +11841,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="27" t="s">
@@ -11703,17 +11870,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>415</v>
+        <v>423</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>410</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="71">
         <v>64</v>
@@ -11734,8 +11901,8 @@
       <c r="B9" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>416</v>
+      <c r="C9" s="93" t="s">
+        <v>411</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
@@ -11750,7 +11917,7 @@
       <c r="H9" s="45">
         <v>0</v>
       </c>
-      <c r="I9" s="96"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="59" t="str">
         <f t="shared" si="0"/>
         <v>stock int(16) NOT NULL DEFAULT 0 COMMENT '库存',</v>
@@ -11763,48 +11930,48 @@
       <c r="B10" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="94" t="s">
-        <v>417</v>
+      <c r="C10" s="93" t="s">
+        <v>412</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="45">
         <v>128</v>
       </c>
       <c r="H10" s="45"/>
-      <c r="I10" s="97"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="59" t="str">
         <f t="shared" si="0"/>
         <v>pic_url varchar(128) NOT NULL COMMENT 'sku图片',</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="97">
         <v>8</v>
       </c>
-      <c r="B11" s="99" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>418</v>
+      <c r="B11" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>413</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="45">
         <v>24</v>
       </c>
       <c r="H11" s="45"/>
-      <c r="I11" s="100"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="59" t="str">
         <f t="shared" si="0"/>
         <v>vip_price varchar(24) COMMENT 'vip会员价',</v>
@@ -11814,24 +11981,24 @@
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>429</v>
+      <c r="B12" s="100" t="s">
+        <v>424</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="45">
         <v>24</v>
       </c>
       <c r="H12" s="45"/>
-      <c r="I12" s="93"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>base_price varchar(24) COMMENT '商品采购底价(单位：元)',</v>
@@ -11844,21 +12011,21 @@
       <c r="B13" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="94" t="s">
-        <v>420</v>
+      <c r="C13" s="93" t="s">
+        <v>415</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="45">
         <v>24</v>
       </c>
       <c r="H13" s="45"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>sale_price varchar(24) NOT NULL COMMENT '销售价(单位：元)',</v>
@@ -11872,20 +12039,20 @@
         <v>157</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="45">
         <v>24</v>
       </c>
       <c r="H14" s="44"/>
-      <c r="I14" s="96"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>market_price varchar(24) COMMENT '市场价(单位：元)',</v>
@@ -11898,8 +12065,8 @@
       <c r="B15" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="94" t="s">
-        <v>422</v>
+      <c r="C15" s="93" t="s">
+        <v>417</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
@@ -11914,7 +12081,7 @@
       <c r="H15" s="45">
         <v>0</v>
       </c>
-      <c r="I15" s="96"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>sort_no int(4) NOT NULL DEFAULT 0 COMMENT '排序号',</v>
@@ -11928,7 +12095,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
@@ -11941,7 +12108,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="45"/>
-      <c r="I16" s="100"/>
+      <c r="I16" s="99"/>
       <c r="J16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
@@ -11955,7 +12122,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
@@ -11980,7 +12147,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
@@ -12007,7 +12174,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
@@ -12032,7 +12199,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E21" s="118"/>
       <c r="J21" s="61" t="str">
@@ -12054,22 +12221,22 @@
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
@@ -12080,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -12124,7 +12291,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12161,7 +12328,7 @@
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -12429,29 +12596,29 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="108"/>
@@ -12462,15 +12629,15 @@
         <v>1</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12526,7 +12693,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="116"/>
       <c r="J1" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12725,7 +12892,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" s="118"/>
       <c r="J10" s="61" t="str">
@@ -12747,22 +12914,22 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="107" t="s">
         <v>432</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F13" s="107" t="s">
-        <v>437</v>
       </c>
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
@@ -12773,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
